--- a/output/page_6.xlsx
+++ b/output/page_6.xlsx
@@ -7,14 +7,32 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Page 1 - Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
+  <si>
+    <t>MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t>WesternGlove Centric8 PROD</t>
+  </si>
+  <si>
+    <t>M12225BVS563:KONRAD</t>
+  </si>
+  <si>
+    <t>CONSTRUCTION THREAD DETAILS</t>
+  </si>
+  <si>
+    <t>MASTER</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
   <si>
     <t>Spec Item</t>
   </si>
@@ -486,15 +504,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -504,69 +522,55 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -576,34 +580,32 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -612,27 +614,21 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -640,188 +636,166 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -829,17 +803,17 @@
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -847,17 +821,17 @@
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -865,39 +839,37 @@
         <v>35</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -905,38 +877,114 @@
         <v>39</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/page_6.xlsx
+++ b/output/page_6.xlsx
@@ -7,28 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="page_6 - Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="47">
-  <si>
-    <t>MASTER PACKAGE</t>
-  </si>
-  <si>
-    <t>WesternGlove Centric8 PROD</t>
-  </si>
-  <si>
-    <t>M12225BVS563:KONRAD</t>
-  </si>
-  <si>
-    <t>CONSTRUCTION THREAD DETAILS</t>
-  </si>
-  <si>
-    <t>MASTER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="44">
+  <si>
+    <t xml:space="preserve"> MASTER PACKAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> WesternGlove Centric8 PROD                             M12225BVS563:KONRAD                         CONSTRUCTION THREAD DETAILS                                 MASTER</t>
   </si>
   <si>
     <t>Items</t>
@@ -161,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +160,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F2F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -205,9 +231,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -504,482 +545,545 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="E16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1" t="s">
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1" t="s">
+      <c r="B21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
+      <c r="E21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1" t="s">
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1" t="s">
+      <c r="B24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
+      <c r="E24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
+      <c r="F24" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="B25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="B26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1" t="s">
+      <c r="B27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
+      <c r="B28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1" t="s">
+      <c r="B29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1" t="s">
+      <c r="E29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="8">
+    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A2:Z2"/>
+    <mergeCell ref="A4:Z4"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A10:F10"/>
